--- a/data/924/NBS/Electricity.xlsx
+++ b/data/924/NBS/Electricity.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC5"/>
+  <dimension ref="A1:RD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2350 +374,2355 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1985</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1985</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1985</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1985</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1985</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1985</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1985</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>May 1985</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1985</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1985</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1985</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1985</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1984</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1984</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1984</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1984</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1984</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1984</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1984</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>May 1984</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1984</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1984</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1984</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1984</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1983</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1983</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1983</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1983</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1983</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1983</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1983</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>May 1983</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1983</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1983</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1983</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1983</t>
         </is>
@@ -2731,842 +2736,842 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>7233.7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6540.4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6393.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6751.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>7383.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7586.2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>6860.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>6478.4</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>6230.1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>6579</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>7277.2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>6418.7</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>6094.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>6315.2</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>7238.3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>6801.2</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>6304.1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>5932.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>5542.7</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>5525.1</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>6544.2</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>5889.8</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>5714.2</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>5908.4</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>6682.4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>6573.1</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>5833.9</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>5589</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>5440.2</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>5697.9</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>6199.9</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>5543</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>5330.2</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>5483.1</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>6404.9</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>6400.2</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>5550.6</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>5443.3</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>5107.8</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>5283.4</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="n">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
         <v>5698.6</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>5196.3</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>5038.1</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>5219.6</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>5945.5</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>6047.4</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>5203</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>4947</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>4767.2</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>5168.9</v>
       </c>
-      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="n">
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
         <v>5328.9</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>5034.1</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>4875.8</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>4912.8</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>5617.2</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>5506.1</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>4907.9</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>4635.9</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>4444.5</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>4778.8</v>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="n">
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="n">
         <v>4910.3</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>4660.4</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>4453.5</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>4547.8</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>5155.3</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>5089.6</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>4745.3</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>4562.2</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>4450.3</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>4510.6</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>3653.9</v>
       </c>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="n">
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="n">
         <v>4902.2</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>4487.2</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>4446.4</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>4541.7</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>4959.3</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>5047.9</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>4580.7</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>4415.9</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>4250.2</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>4527.7</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CU2" t="n">
         <v>3833.6</v>
       </c>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="n">
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="n">
         <v>4779.6</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>4391.8</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>4305.2</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>4310.4</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>4987</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>4794.5</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>4252.6</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>4104.1</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>3994.4</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>4194.3</v>
       </c>
-      <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="n">
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="n">
         <v>4327.2</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>4010.5</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>3897.7</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>3907.3</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>4372.8</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>4351.2</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>3933.5</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>3898.1</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>3718.2</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>4109.2</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>3701.7</v>
       </c>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="n">
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="n">
         <v>4038.1</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>3713</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>3640.4</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>3860.6</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>4260.4</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>4251.5</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>3968.2</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>3775.4</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>3663.8</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>3830.1</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>3100.8</v>
       </c>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="n">
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="n">
         <v>3677.8</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>3453.4</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>3328.8</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>3486.5</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>3903.3</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>3776.4</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>3466.6</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>3404.7</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>3316.4</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>3369.5</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>2695.9</v>
       </c>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="n">
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="n">
         <v>3497.8</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>3234.1</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>3121</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>3203.3</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>3443.2</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>3345</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>3100.1</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>2838.9</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>2712.9</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>2833.6</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>2449.4</v>
       </c>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="n">
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="n">
         <v>2739.6</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>2540.2</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>2645</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>2892.5</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>3160.6</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>3195.4</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>2934.5</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>2933.8</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>2814.3</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>2897.8</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>2337.8</v>
       </c>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="n">
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="n">
         <v>2946.9</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>2754.7</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>2727.9</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>2760.1</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>2989.8</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>2915.7</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>2715.6</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>2568.7</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>2474.5</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>2472</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>1967.3</v>
       </c>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="n">
+      <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="n">
         <v>2573.4</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>2363.4</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>2324.3</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>2364.8</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>2570.5</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>2517.1</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>2301.9</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>2175.3</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>2116.6</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>2161.6</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>1962</v>
       </c>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="n">
+      <c r="GN2" t="inlineStr"/>
+      <c r="GO2" t="n">
         <v>2246.6</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GP2" t="n">
         <v>2041.9</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GQ2" t="n">
         <v>2011</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>2053.3</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>2162.1</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GT2" t="n">
         <v>2178.9</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GU2" t="n">
         <v>2006.8</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GV2" t="n">
         <v>1924.7</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>1892.1</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>1940.5</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>1601.1</v>
       </c>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="n">
+      <c r="GZ2" t="inlineStr"/>
+      <c r="HA2" t="n">
         <v>1931.3</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>1858.8</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>1844.3</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>1809.5</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>1921</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HF2" t="n">
         <v>1898.8</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HG2" t="n">
         <v>1748.1</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HH2" t="n">
         <v>1692.9</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>1678.9</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>1706.7</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HK2" t="n">
         <v>1570.5</v>
       </c>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="n">
+      <c r="HL2" t="inlineStr"/>
+      <c r="HM2" t="n">
         <v>1710.6</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>1624.6</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>1581.1</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HP2" t="n">
         <v>1584.6</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HQ2" t="n">
         <v>1700.3</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HR2" t="n">
         <v>1699.3</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HS2" t="n">
         <v>1514.3</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>1454</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>1427.2</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>1458.1</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>1258</v>
       </c>
-      <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="n">
+      <c r="HX2" t="inlineStr"/>
+      <c r="HY2" t="n">
         <v>1514.1</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>1408.2</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>1385.2</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>1426.6</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>1456</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>1458</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>1354.8</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>1283.7</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>1249.7</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>1241</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>1010.4</v>
       </c>
-      <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="n">
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="n">
         <v>1313.1</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IL2" t="n">
         <v>1202</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>1180.4</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>1188.5</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IO2" t="n">
         <v>1268.8</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IP2" t="n">
         <v>1310.7</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IQ2" t="n">
         <v>1192.2</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>1177.9</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>1116.7</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>1170.8</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>1054.5</v>
       </c>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="n">
+      <c r="IV2" t="inlineStr"/>
+      <c r="IW2" t="n">
         <v>1194</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>1114.4</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>1089.7</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>1078.8</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JA2" t="n">
         <v>1174.1</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JB2" t="n">
         <v>1193.7</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JC2" t="n">
         <v>1098.1</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>1097.8</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>1037.2</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>1043.9</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>957.4</v>
       </c>
-      <c r="JG2" t="inlineStr"/>
-      <c r="JH2" t="n">
+      <c r="JH2" t="inlineStr"/>
+      <c r="JI2" t="n">
         <v>1103.8</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JJ2" t="n">
         <v>1003</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JK2" t="n">
         <v>994.5</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JL2" t="n">
         <v>1003.6</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JM2" t="n">
         <v>1072.5</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JN2" t="n">
         <v>1071.2</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JO2" t="n">
         <v>977.3</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JP2" t="n">
         <v>969.2</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>939.9</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JR2" t="n">
         <v>990.1</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JS2" t="n">
         <v>814.1</v>
       </c>
-      <c r="JS2" t="inlineStr"/>
-      <c r="JT2" t="n">
+      <c r="JT2" t="inlineStr"/>
+      <c r="JU2" t="n">
         <v>1052.6</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JV2" t="n">
         <v>955</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JW2" t="n">
         <v>941.1</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JX2" t="n">
         <v>930.1</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JY2" t="n">
         <v>1006.1</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JZ2" t="n">
         <v>993.4</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KA2" t="n">
         <v>926.1</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KB2" t="n">
         <v>917.8</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KC2" t="n">
         <v>909.9</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KD2" t="n">
         <v>963.6</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KE2" t="n">
         <v>819.4</v>
       </c>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="n">
+      <c r="KF2" t="inlineStr"/>
+      <c r="KG2" t="n">
         <v>987.6</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KH2" t="n">
         <v>916.5</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KI2" t="n">
         <v>910.2</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KJ2" t="n">
         <v>911.5</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KK2" t="n">
         <v>971.2</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KL2" t="n">
         <v>964.1</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KM2" t="n">
         <v>924.7</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KN2" t="n">
         <v>937.1</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KO2" t="n">
         <v>882.6</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KP2" t="n">
         <v>931.8</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KQ2" t="n">
         <v>775.8</v>
       </c>
-      <c r="KQ2" t="inlineStr"/>
       <c r="KR2" t="inlineStr"/>
       <c r="KS2" t="inlineStr"/>
       <c r="KT2" t="inlineStr"/>
@@ -3579,40 +3584,40 @@
       <c r="LA2" t="inlineStr"/>
       <c r="LB2" t="inlineStr"/>
       <c r="LC2" t="inlineStr"/>
-      <c r="LD2" t="n">
+      <c r="LD2" t="inlineStr"/>
+      <c r="LE2" t="n">
         <v>895.8</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LF2" t="n">
         <v>843.9</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LG2" t="n">
         <v>825.9</v>
       </c>
-      <c r="LG2" t="n">
+      <c r="LH2" t="n">
         <v>827.2</v>
       </c>
-      <c r="LH2" t="n">
+      <c r="LI2" t="n">
         <v>864.6</v>
       </c>
-      <c r="LI2" t="n">
+      <c r="LJ2" t="n">
         <v>865.6</v>
       </c>
-      <c r="LJ2" t="n">
+      <c r="LK2" t="n">
         <v>824.2</v>
       </c>
-      <c r="LK2" t="n">
+      <c r="LL2" t="n">
         <v>813.5</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>806.8</v>
       </c>
       <c r="LM2" t="n">
         <v>806.8</v>
       </c>
       <c r="LN2" t="n">
+        <v>806.8</v>
+      </c>
+      <c r="LO2" t="n">
         <v>712.7</v>
       </c>
-      <c r="LO2" t="inlineStr"/>
       <c r="LP2" t="inlineStr"/>
       <c r="LQ2" t="inlineStr"/>
       <c r="LR2" t="inlineStr"/>
@@ -3625,176 +3630,176 @@
       <c r="LY2" t="inlineStr"/>
       <c r="LZ2" t="inlineStr"/>
       <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="n">
+      <c r="MB2" t="inlineStr"/>
+      <c r="MC2" t="n">
         <v>750.2</v>
       </c>
-      <c r="MC2" t="n">
+      <c r="MD2" t="n">
         <v>694.6</v>
       </c>
-      <c r="MD2" t="n">
+      <c r="ME2" t="n">
         <v>687.9</v>
       </c>
-      <c r="ME2" t="n">
+      <c r="MF2" t="n">
         <v>669.7</v>
       </c>
-      <c r="MF2" t="n">
+      <c r="MG2" t="n">
         <v>700.2</v>
       </c>
-      <c r="MG2" t="n">
+      <c r="MH2" t="n">
         <v>701.1</v>
       </c>
-      <c r="MH2" t="n">
+      <c r="MI2" t="n">
         <v>680</v>
       </c>
-      <c r="MI2" t="n">
+      <c r="MJ2" t="n">
         <v>678.9</v>
       </c>
-      <c r="MJ2" t="n">
+      <c r="MK2" t="n">
         <v>655.1</v>
       </c>
-      <c r="MK2" t="n">
+      <c r="ML2" t="n">
         <v>681.4</v>
       </c>
-      <c r="ML2" t="n">
+      <c r="MM2" t="n">
         <v>609.5</v>
       </c>
-      <c r="MM2" t="inlineStr"/>
-      <c r="MN2" t="n">
+      <c r="MN2" t="inlineStr"/>
+      <c r="MO2" t="n">
         <v>672.8</v>
       </c>
-      <c r="MO2" t="n">
+      <c r="MP2" t="n">
         <v>641.2</v>
       </c>
-      <c r="MP2" t="n">
+      <c r="MQ2" t="n">
         <v>625.3</v>
       </c>
-      <c r="MQ2" t="n">
+      <c r="MR2" t="n">
         <v>613</v>
       </c>
-      <c r="MR2" t="n">
+      <c r="MS2" t="n">
         <v>639.6</v>
       </c>
-      <c r="MS2" t="n">
+      <c r="MT2" t="n">
         <v>650</v>
       </c>
-      <c r="MT2" t="n">
+      <c r="MU2" t="n">
         <v>626.2</v>
       </c>
-      <c r="MU2" t="n">
+      <c r="MV2" t="n">
         <v>620</v>
       </c>
-      <c r="MV2" t="n">
+      <c r="MW2" t="n">
         <v>587.3</v>
       </c>
-      <c r="MW2" t="n">
+      <c r="MX2" t="n">
         <v>611.1</v>
       </c>
-      <c r="MX2" t="n">
+      <c r="MY2" t="n">
         <v>551.5</v>
       </c>
-      <c r="MY2" t="inlineStr"/>
-      <c r="MZ2" t="n">
+      <c r="MZ2" t="inlineStr"/>
+      <c r="NA2" t="n">
         <v>600.8</v>
       </c>
-      <c r="NA2" t="n">
+      <c r="NB2" t="n">
         <v>579.5</v>
       </c>
-      <c r="NB2" t="n">
+      <c r="NC2" t="n">
         <v>573.6</v>
       </c>
-      <c r="NC2" t="n">
+      <c r="ND2" t="n">
         <v>560.9</v>
       </c>
-      <c r="ND2" t="n">
+      <c r="NE2" t="n">
         <v>581.2</v>
       </c>
-      <c r="NE2" t="n">
+      <c r="NF2" t="n">
         <v>578.3</v>
       </c>
-      <c r="NF2" t="n">
+      <c r="NG2" t="n">
         <v>546.4</v>
       </c>
-      <c r="NG2" t="n">
+      <c r="NH2" t="n">
         <v>564.8</v>
       </c>
-      <c r="NH2" t="n">
+      <c r="NI2" t="n">
         <v>534.5</v>
       </c>
-      <c r="NI2" t="n">
+      <c r="NJ2" t="n">
         <v>549.7</v>
       </c>
-      <c r="NJ2" t="n">
+      <c r="NK2" t="n">
         <v>470.9</v>
       </c>
-      <c r="NK2" t="inlineStr"/>
-      <c r="NL2" t="n">
+      <c r="NL2" t="inlineStr"/>
+      <c r="NM2" t="n">
         <v>556.8</v>
       </c>
-      <c r="NM2" t="n">
+      <c r="NN2" t="n">
         <v>526.8</v>
       </c>
-      <c r="NN2" t="n">
+      <c r="NO2" t="n">
         <v>521</v>
       </c>
-      <c r="NO2" t="n">
+      <c r="NP2" t="n">
         <v>504.3</v>
       </c>
-      <c r="NP2" t="n">
+      <c r="NQ2" t="n">
         <v>529.5</v>
       </c>
-      <c r="NQ2" t="n">
+      <c r="NR2" t="n">
         <v>524</v>
       </c>
-      <c r="NR2" t="n">
+      <c r="NS2" t="n">
         <v>516.3</v>
       </c>
-      <c r="NS2" t="n">
+      <c r="NT2" t="n">
         <v>519.2</v>
       </c>
-      <c r="NT2" t="n">
+      <c r="NU2" t="n">
         <v>495.6</v>
       </c>
-      <c r="NU2" t="n">
+      <c r="NV2" t="n">
         <v>507.2</v>
       </c>
-      <c r="NV2" t="n">
+      <c r="NW2" t="n">
         <v>457.1</v>
       </c>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="n">
+      <c r="NX2" t="inlineStr"/>
+      <c r="NY2" t="n">
         <v>520.6</v>
       </c>
-      <c r="NY2" t="n">
+      <c r="NZ2" t="n">
         <v>497.8</v>
       </c>
-      <c r="NZ2" t="n">
+      <c r="OA2" t="n">
         <v>494.3</v>
       </c>
-      <c r="OA2" t="n">
+      <c r="OB2" t="n">
         <v>482.1</v>
       </c>
-      <c r="OB2" t="n">
+      <c r="OC2" t="n">
         <v>504.4</v>
       </c>
-      <c r="OC2" t="n">
+      <c r="OD2" t="n">
         <v>497</v>
       </c>
-      <c r="OD2" t="n">
+      <c r="OE2" t="n">
         <v>496.3</v>
       </c>
-      <c r="OE2" t="n">
+      <c r="OF2" t="n">
         <v>496.5</v>
       </c>
-      <c r="OF2" t="n">
+      <c r="OG2" t="n">
         <v>470.6</v>
       </c>
-      <c r="OG2" t="n">
+      <c r="OH2" t="n">
         <v>473.6</v>
       </c>
-      <c r="OH2" t="n">
+      <c r="OI2" t="n">
         <v>417.6</v>
       </c>
-      <c r="OI2" t="inlineStr"/>
       <c r="OJ2" t="inlineStr"/>
       <c r="OK2" t="inlineStr"/>
       <c r="OL2" t="inlineStr"/>
@@ -3867,6 +3872,7 @@
       <c r="RA2" t="inlineStr"/>
       <c r="RB2" t="inlineStr"/>
       <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3874,860 +3880,860 @@
           <t>Output of Electricity, Accumulated(100 million kwh)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>13140.6</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>81121.8</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>73826.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>67176</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>60721.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>53894</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>46450.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>38717</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>31772.3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>25275.5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>19051.5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>12427.7</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>74170.39999999999</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>66824.39999999999</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>60288.3</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>54085.6</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>47727.9</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>40450.9</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>33644.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>27325.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>21388.1</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>15822.1</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>10266.9</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
         <v>71422.10000000001</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>64796.4</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>58741.7</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>52967.3</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>47026</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>40300.5</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>33672.8</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>27809.2</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>22198</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>16747.4</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>10981.9</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>67914.2</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>61626</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>55816.3</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>50361.7</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>44800.7</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>38373.3</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>31945.3</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>26361.2</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>20876.5</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>15762.7</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>10454.5</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="n">
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="n">
         <v>62758.2</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>57118.2</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>51944.3</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>46891.4</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>41659.4</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>35697.6</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>29598.3</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>24367.7</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>19382.4</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>14587.2</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>9315.299999999999</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="n">
         <v>59111.2</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>53700.8</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>48646.9</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>43732.3</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>38771.6</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>33120.5</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>27594.9</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>22676.1</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>17985.9</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>13551.4</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>8701.700000000001</v>
       </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="n">
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="n">
         <v>56183.7</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>51256.7</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>46511.2</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>41989.5</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>37380.4</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>32208.4</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>27090.5</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>22186.6</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>17593.2</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>13102.7</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>8560.9</v>
       </c>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="n">
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="n">
         <v>54637.6</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>49745.5</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>45233.9</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>40754.8</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>36200</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>31248.7</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>26163.3</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>21488.9</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>17026.6</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>12719.4</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>8161.7</v>
       </c>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="n">
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="n">
         <v>52451.1</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>47412.5</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CY3" t="n">
         <v>43017.6</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>38688.4</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>34319.9</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>29228.7</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>24341.6</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>20018.3</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>15861.2</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>11822.8</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>7573.2</v>
       </c>
-      <c r="DG3" t="inlineStr"/>
-      <c r="DH3" t="n">
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="n">
         <v>48187.5</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>43843.3</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>39752</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>35833.9</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>31912.2</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>27436.4</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>22950.3</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>19101.6</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>15118.1</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>11445.8</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>7187.3</v>
       </c>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="n">
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="n">
         <v>46036.7</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>41939</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>38181.4</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>34540.1</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>30732.7</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>26425.9</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>22166.1</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>18161.8</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>14304.5</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>10650.7</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>6772.9</v>
       </c>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="n">
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="n">
         <v>41412.6</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>37744.6</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>34215.6</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>30905.9</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>27404.7</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>23478.1</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>19706</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>16275.6</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>12842.1</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>9489.200000000001</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>6090.1</v>
       </c>
-      <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="n">
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="n">
         <v>36506.2</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>32916.4</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>29630</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>26510.9</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>23293.2</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>19780.4</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>16441.5</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>13328.4</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>10491.6</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>7797</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>4882.9</v>
       </c>
-      <c r="FC3" t="inlineStr"/>
-      <c r="FD3" t="n">
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="n">
         <v>34047</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>31292.7</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>28704.7</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>26072.2</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>23229.3</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>20062.8</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>16803.2</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FL3" t="n">
         <v>13881.9</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>10909.8</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FN3" t="n">
         <v>8051.3</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>5169.3</v>
       </c>
-      <c r="FO3" t="inlineStr"/>
-      <c r="FP3" t="n">
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="n">
         <v>32086.8</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FR3" t="n">
         <v>29194.8</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FS3" t="n">
         <v>26432.9</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FT3" t="n">
         <v>23702.4</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FU3" t="n">
         <v>20860.9</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FV3" t="n">
         <v>17849.5</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FW3" t="n">
         <v>14850.3</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FX3" t="n">
         <v>12082.4</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FY3" t="n">
         <v>9507.299999999999</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="FZ3" t="n">
         <v>7011.7</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>4479.7</v>
       </c>
-      <c r="GA3" t="inlineStr"/>
-      <c r="GB3" t="n">
+      <c r="GB3" t="inlineStr"/>
+      <c r="GC3" t="n">
         <v>27557.5</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GD3" t="n">
         <v>24897.9</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GE3" t="n">
         <v>22452</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GF3" t="n">
         <v>20111.2</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GG3" t="n">
         <v>17832.5</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GH3" t="n">
         <v>15191</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GI3" t="n">
         <v>12686.7</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GJ3" t="n">
         <v>10357.2</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GK3" t="n">
         <v>8175.3</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GL3" t="n">
         <v>6068.3</v>
       </c>
-      <c r="GL3" t="n">
+      <c r="GM3" t="n">
         <v>4025.4</v>
       </c>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="n">
+      <c r="GN3" t="inlineStr"/>
+      <c r="GO3" t="n">
         <v>24145.8</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GP3" t="n">
         <v>21801.9</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GQ3" t="n">
         <v>19750.9</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GR3" t="n">
         <v>17739.8</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="GS3" t="n">
         <v>15664.2</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="GT3" t="n">
         <v>13488</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="GU3" t="n">
         <v>11286.3</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GV3" t="n">
         <v>9254.799999999999</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GW3" t="n">
         <v>7299.5</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GX3" t="n">
         <v>5449.3</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GY3" t="n">
         <v>3501.4</v>
       </c>
-      <c r="GY3" t="inlineStr"/>
-      <c r="GZ3" t="n">
+      <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="n">
         <v>21302.3</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HB3" t="n">
         <v>19271.3</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HC3" t="n">
         <v>17430.9</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HD3" t="n">
         <v>15574.8</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HE3" t="n">
         <v>13748.4</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HF3" t="n">
         <v>11825.8</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HG3" t="n">
         <v>9908.5</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HH3" t="n">
         <v>8175.7</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HI3" t="n">
         <v>6473.1</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HJ3" t="n">
         <v>4793.6</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HK3" t="n">
         <v>3068.2</v>
       </c>
-      <c r="HK3" t="inlineStr"/>
-      <c r="HL3" t="n">
+      <c r="HL3" t="inlineStr"/>
+      <c r="HM3" t="n">
         <v>18462.1</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HN3" t="n">
         <v>16758.8</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HO3" t="n">
         <v>15121.3</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HP3" t="n">
         <v>13527.4</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HQ3" t="n">
         <v>11927.2</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HR3" t="n">
         <v>10227.6</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HS3" t="n">
         <v>8521.6</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HT3" t="n">
         <v>6975.5</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HU3" t="n">
         <v>5523.6</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HV3" t="n">
         <v>4088.8</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HW3" t="n">
         <v>2637</v>
       </c>
-      <c r="HW3" t="inlineStr"/>
-      <c r="HX3" t="n">
+      <c r="HX3" t="inlineStr"/>
+      <c r="HY3" t="n">
         <v>16024</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HZ3" t="n">
         <v>14476.7</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IA3" t="n">
         <v>13088</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IB3" t="n">
         <v>11758.9</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IC3" t="n">
         <v>10332.3</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="ID3" t="n">
         <v>8894.700000000001</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IE3" t="n">
         <v>7414.4</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IF3" t="n">
         <v>6058.2</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
         <v>4769.4</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IH3" t="n">
         <v>3508.2</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="II3" t="n">
         <v>2270.9</v>
       </c>
-      <c r="II3" t="inlineStr"/>
-      <c r="IJ3" t="n">
+      <c r="IJ3" t="inlineStr"/>
+      <c r="IK3" t="n">
         <v>14332.5</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IL3" t="n">
         <v>12967.9</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IM3" t="n">
         <v>11756.3</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IN3" t="n">
         <v>10568</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IO3" t="n">
         <v>9362.299999999999</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IP3" t="n">
         <v>8088.1</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IQ3" t="n">
         <v>6766.4</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IR3" t="n">
         <v>5560.9</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IS3" t="n">
         <v>4384.2</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IT3" t="n">
         <v>3397.6</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IU3" t="n">
         <v>2210.3</v>
       </c>
-      <c r="IU3" t="inlineStr"/>
-      <c r="IV3" t="n">
+      <c r="IV3" t="inlineStr"/>
+      <c r="IW3" t="n">
         <v>13256.4</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>11956.2</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IY3" t="n">
         <v>10843.1</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IZ3" t="n">
         <v>9727.200000000001</v>
       </c>
-      <c r="IZ3" t="n">
+      <c r="JA3" t="n">
         <v>8620.9</v>
       </c>
-      <c r="JA3" t="n">
+      <c r="JB3" t="n">
         <v>7453.2</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JC3" t="n">
         <v>6283.7</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>5197.2</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>4116.8</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JF3" t="n">
         <v>2999.1</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>2004.9</v>
       </c>
-      <c r="JG3" t="inlineStr"/>
-      <c r="JH3" t="n">
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="n">
         <v>11977.8</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JJ3" t="n">
         <v>10830.5</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JK3" t="n">
         <v>9832</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JL3" t="n">
         <v>8830.700000000001</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JM3" t="n">
         <v>7820</v>
       </c>
-      <c r="JM3" t="n">
+      <c r="JN3" t="n">
         <v>6751.6</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JO3" t="n">
         <v>5674.4</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JP3" t="n">
         <v>4691</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JQ3" t="n">
         <v>3721.1</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JR3" t="n">
         <v>2775.8</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JS3" t="n">
         <v>1791.7</v>
       </c>
-      <c r="JS3" t="inlineStr"/>
-      <c r="JT3" t="n">
+      <c r="JT3" t="inlineStr"/>
+      <c r="JU3" t="n">
         <v>11387.5</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JV3" t="n">
         <v>10180.9</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JW3" t="n">
         <v>9232.1</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JX3" t="n">
         <v>8291.299999999999</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JY3" t="n">
         <v>7355.9</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JZ3" t="n">
         <v>6369.6</v>
       </c>
-      <c r="JZ3" t="n">
+      <c r="KA3" t="n">
         <v>5409.6</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KB3" t="n">
         <v>4486.2</v>
       </c>
-      <c r="KB3" t="n">
+      <c r="KC3" t="n">
         <v>3570</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KD3" t="n">
         <v>2664.2</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KE3" t="n">
         <v>1692.9</v>
       </c>
-      <c r="KE3" t="inlineStr"/>
-      <c r="KF3" t="n">
+      <c r="KF3" t="inlineStr"/>
+      <c r="KG3" t="n">
         <v>11045</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KH3" t="n">
         <v>10046.8</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KI3" t="n">
         <v>9120.6</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KJ3" t="n">
         <v>8211.200000000001</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KK3" t="n">
         <v>7299.6</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KL3" t="n">
         <v>6313.8</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KM3" t="n">
         <v>5338.6</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KN3" t="n">
         <v>4421.7</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KO3" t="n">
         <v>3482.3</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KP3" t="n">
         <v>2611.4</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KQ3" t="n">
         <v>1671.5</v>
       </c>
-      <c r="KQ3" t="inlineStr"/>
       <c r="KR3" t="inlineStr"/>
       <c r="KS3" t="inlineStr"/>
       <c r="KT3" t="inlineStr"/>
@@ -4740,40 +4746,40 @@
       <c r="LA3" t="inlineStr"/>
       <c r="LB3" t="inlineStr"/>
       <c r="LC3" t="inlineStr"/>
-      <c r="LD3" t="n">
+      <c r="LD3" t="inlineStr"/>
+      <c r="LE3" t="n">
         <v>9860.9</v>
       </c>
-      <c r="LE3" t="n">
+      <c r="LF3" t="n">
         <v>8969.200000000001</v>
       </c>
-      <c r="LF3" t="n">
+      <c r="LG3" t="n">
         <v>8120</v>
       </c>
-      <c r="LG3" t="n">
+      <c r="LH3" t="n">
         <v>7289.4</v>
       </c>
-      <c r="LH3" t="n">
+      <c r="LI3" t="n">
         <v>6462</v>
       </c>
-      <c r="LI3" t="n">
+      <c r="LJ3" t="n">
         <v>5604.6</v>
       </c>
-      <c r="LJ3" t="n">
+      <c r="LK3" t="n">
         <v>4740.3</v>
       </c>
-      <c r="LK3" t="n">
+      <c r="LL3" t="n">
         <v>3912.9</v>
       </c>
-      <c r="LL3" t="n">
+      <c r="LM3" t="n">
         <v>3096.9</v>
       </c>
-      <c r="LM3" t="n">
+      <c r="LN3" t="n">
         <v>2290.7</v>
       </c>
-      <c r="LN3" t="n">
+      <c r="LO3" t="n">
         <v>1473.6</v>
       </c>
-      <c r="LO3" t="inlineStr"/>
       <c r="LP3" t="inlineStr"/>
       <c r="LQ3" t="inlineStr"/>
       <c r="LR3" t="inlineStr"/>
@@ -4786,176 +4792,176 @@
       <c r="LY3" t="inlineStr"/>
       <c r="LZ3" t="inlineStr"/>
       <c r="MA3" t="inlineStr"/>
-      <c r="MB3" t="n">
+      <c r="MB3" t="inlineStr"/>
+      <c r="MC3" t="n">
         <v>8158.5</v>
       </c>
-      <c r="MC3" t="n">
+      <c r="MD3" t="n">
         <v>7394.9</v>
       </c>
-      <c r="MD3" t="n">
+      <c r="ME3" t="n">
         <v>6697.8</v>
       </c>
-      <c r="ME3" t="n">
+      <c r="MF3" t="n">
         <v>6009</v>
       </c>
-      <c r="MF3" t="n">
+      <c r="MG3" t="n">
         <v>5337.4</v>
       </c>
-      <c r="MG3" t="n">
+      <c r="MH3" t="n">
         <v>4636.4</v>
       </c>
-      <c r="MH3" t="n">
+      <c r="MI3" t="n">
         <v>3929.2</v>
       </c>
-      <c r="MI3" t="n">
+      <c r="MJ3" t="n">
         <v>3248</v>
       </c>
-      <c r="MJ3" t="n">
+      <c r="MK3" t="n">
         <v>2568.2</v>
       </c>
-      <c r="MK3" t="n">
+      <c r="ML3" t="n">
         <v>1914.3</v>
       </c>
-      <c r="ML3" t="n">
+      <c r="MM3" t="n">
         <v>1234.4</v>
       </c>
-      <c r="MM3" t="inlineStr"/>
-      <c r="MN3" t="n">
+      <c r="MN3" t="inlineStr"/>
+      <c r="MO3" t="n">
         <v>7446.9</v>
       </c>
-      <c r="MO3" t="n">
+      <c r="MP3" t="n">
         <v>6765.3</v>
       </c>
-      <c r="MP3" t="n">
+      <c r="MQ3" t="n">
         <v>6120.6</v>
       </c>
-      <c r="MQ3" t="n">
+      <c r="MR3" t="n">
         <v>5491.5</v>
       </c>
-      <c r="MR3" t="n">
+      <c r="MS3" t="n">
         <v>4878.9</v>
       </c>
-      <c r="MS3" t="n">
+      <c r="MT3" t="n">
         <v>4238</v>
       </c>
-      <c r="MT3" t="n">
+      <c r="MU3" t="n">
         <v>3588.1</v>
       </c>
-      <c r="MU3" t="n">
+      <c r="MV3" t="n">
         <v>2953.8</v>
       </c>
-      <c r="MV3" t="n">
+      <c r="MW3" t="n">
         <v>2337.4</v>
       </c>
-      <c r="MW3" t="n">
+      <c r="MX3" t="n">
         <v>1745</v>
       </c>
-      <c r="MX3" t="n">
+      <c r="MY3" t="n">
         <v>1129.9</v>
       </c>
-      <c r="MY3" t="inlineStr"/>
-      <c r="MZ3" t="n">
+      <c r="MZ3" t="inlineStr"/>
+      <c r="NA3" t="n">
         <v>6716</v>
       </c>
-      <c r="NA3" t="n">
+      <c r="NB3" t="n">
         <v>6102.4</v>
       </c>
-      <c r="NB3" t="n">
+      <c r="NC3" t="n">
         <v>5523.6</v>
       </c>
-      <c r="NC3" t="n">
+      <c r="ND3" t="n">
         <v>4950.3</v>
       </c>
-      <c r="ND3" t="n">
+      <c r="NE3" t="n">
         <v>4388.6</v>
       </c>
-      <c r="NE3" t="n">
+      <c r="NF3" t="n">
         <v>3804.4</v>
       </c>
-      <c r="NF3" t="n">
+      <c r="NG3" t="n">
         <v>3225.9</v>
       </c>
-      <c r="NG3" t="n">
+      <c r="NH3" t="n">
         <v>2679.3</v>
       </c>
-      <c r="NH3" t="n">
+      <c r="NI3" t="n">
         <v>2111.9</v>
       </c>
-      <c r="NI3" t="n">
+      <c r="NJ3" t="n">
         <v>1574.8</v>
       </c>
-      <c r="NJ3" t="n">
+      <c r="NK3" t="n">
         <v>1025.5</v>
       </c>
-      <c r="NK3" t="inlineStr"/>
-      <c r="NL3" t="n">
+      <c r="NL3" t="inlineStr"/>
+      <c r="NM3" t="n">
         <v>6146.3</v>
       </c>
-      <c r="NM3" t="n">
+      <c r="NN3" t="n">
         <v>5585.7</v>
       </c>
-      <c r="NN3" t="n">
+      <c r="NO3" t="n">
         <v>5058.7</v>
       </c>
-      <c r="NO3" t="n">
+      <c r="NP3" t="n">
         <v>4536.6</v>
       </c>
-      <c r="NP3" t="n">
+      <c r="NQ3" t="n">
         <v>4030.8</v>
       </c>
-      <c r="NQ3" t="n">
+      <c r="NR3" t="n">
         <v>3498.2</v>
       </c>
-      <c r="NR3" t="n">
+      <c r="NS3" t="n">
         <v>2975.2</v>
       </c>
-      <c r="NS3" t="n">
+      <c r="NT3" t="n">
         <v>2457.7</v>
       </c>
-      <c r="NT3" t="n">
+      <c r="NU3" t="n">
         <v>1928.9</v>
       </c>
-      <c r="NU3" t="n">
+      <c r="NV3" t="n">
         <v>1438.4</v>
       </c>
-      <c r="NV3" t="n">
+      <c r="NW3" t="n">
         <v>937.2</v>
       </c>
-      <c r="NW3" t="inlineStr"/>
-      <c r="NX3" t="n">
+      <c r="NX3" t="inlineStr"/>
+      <c r="NY3" t="n">
         <v>5795.7</v>
       </c>
-      <c r="NY3" t="n">
+      <c r="NZ3" t="n">
         <v>5271</v>
       </c>
-      <c r="NZ3" t="n">
+      <c r="OA3" t="n">
         <v>4771.3</v>
       </c>
-      <c r="OA3" t="n">
+      <c r="OB3" t="n">
         <v>4277</v>
       </c>
-      <c r="OB3" t="n">
+      <c r="OC3" t="n">
         <v>3793.5</v>
       </c>
-      <c r="OC3" t="n">
+      <c r="OD3" t="n">
         <v>3287.6</v>
       </c>
-      <c r="OD3" t="n">
+      <c r="OE3" t="n">
         <v>2798.8</v>
       </c>
-      <c r="OE3" t="n">
+      <c r="OF3" t="n">
         <v>2300.8</v>
       </c>
-      <c r="OF3" t="n">
+      <c r="OG3" t="n">
         <v>1804.4</v>
       </c>
-      <c r="OG3" t="n">
+      <c r="OH3" t="n">
         <v>1332.9</v>
       </c>
-      <c r="OH3" t="n">
+      <c r="OI3" t="n">
         <v>867.3</v>
       </c>
-      <c r="OI3" t="inlineStr"/>
       <c r="OJ3" t="inlineStr"/>
       <c r="OK3" t="inlineStr"/>
       <c r="OL3" t="inlineStr"/>
@@ -5028,6 +5034,7 @@
       <c r="RA3" t="inlineStr"/>
       <c r="RB3" t="inlineStr"/>
       <c r="RC3" t="inlineStr"/>
+      <c r="RD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5037,840 +5044,840 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>-2.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>7.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7.9</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>11</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>17.4</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
         <v>9.1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>6.8</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>4.6</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>5.3</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>6.8</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>1.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>6.5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>4.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>-4.6</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4</v>
       </c>
       <c r="AD4" t="n">
         <v>4</v>
       </c>
       <c r="AE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="n">
         <v>4.7</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>1.7</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0.6</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>2.8</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.2</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>3.8</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>5.4</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>6.2</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>3.6</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>4.8</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>4.6</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>7.3</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>5.7</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>6.7</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>6.9</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>2.1</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="n">
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="n">
         <v>6</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>2.4</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>2.5</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>5.3</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>4.8</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>8.6</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>5.2</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>5</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>5.4</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>7.2</v>
       </c>
-      <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="n">
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="n">
         <v>6.9</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>7</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>8</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>6.8</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>7.8</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>7.2</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>2.1</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>0</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>-1.7</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>4</v>
       </c>
-      <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="n">
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="n">
         <v>-3.7</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>0.1</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>-3.2</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>-3.1</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>1</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>-2</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>-0</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>1</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>-3.7</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CI4" t="n">
         <v>-7.6</v>
       </c>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="n">
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="n">
         <v>1.3</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>0.6</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>1.9</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CN4" t="n">
         <v>4.1</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CO4" t="n">
         <v>-2.2</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>3.3</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CQ4" t="n">
         <v>5.7</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CR4" t="n">
         <v>5.9</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CS4" t="n">
         <v>4.4</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>6.2</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CU4" t="n">
         <v>16</v>
       </c>
-      <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="n">
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>6.8</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CY4" t="n">
         <v>8.4</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CZ4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DA4" t="n">
         <v>13.4</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DB4" t="n">
         <v>8.1</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DC4" t="n">
         <v>6</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DD4" t="n">
         <v>4.1</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>6.2</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>2.1</v>
       </c>
-      <c r="DF4" t="inlineStr"/>
       <c r="DG4" t="inlineStr"/>
-      <c r="DH4" t="n">
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="n">
         <v>7.6</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>7.9</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>6.4</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>1.5</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>2.7</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>2.1</v>
       </c>
-      <c r="DN4" t="inlineStr"/>
-      <c r="DO4" t="n">
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="n">
         <v>2.7</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>0.7</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>7.2</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>20.6</v>
       </c>
-      <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="n">
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>8.5</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>11.5</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>10</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>13.2</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>16.2</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>12.1</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>11.7</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>14.8</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>15.4</v>
       </c>
-      <c r="EE4" t="inlineStr"/>
-      <c r="EF4" t="n">
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="n">
         <v>5.1</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>5.6</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>5.9</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>8.1</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>12.6</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>11.5</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>11.4</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>18.9</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>21.4</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>17.6</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>7.9</v>
       </c>
-      <c r="EQ4" t="inlineStr"/>
-      <c r="ER4" t="n">
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="n">
         <v>25.9</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>26.9</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>17.1</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>9.5</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>4.8</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>5.2</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>-2.7</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>-3.5</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>-1.3</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>5.9</v>
       </c>
-      <c r="FC4" t="inlineStr"/>
-      <c r="FD4" t="n">
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="n">
         <v>-7.9</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FF4" t="n">
         <v>-9.6</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FG4" t="n">
         <v>-4</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FH4" t="n">
         <v>3.4</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FI4" t="n">
         <v>5.1</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FJ4" t="n">
         <v>8.1</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FL4" t="n">
         <v>11.8</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>12.8</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>16.6</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>14.3</v>
       </c>
-      <c r="FO4" t="inlineStr"/>
-      <c r="FP4" t="n">
+      <c r="FP4" t="inlineStr"/>
+      <c r="FQ4" t="n">
         <v>12.3</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FR4" t="n">
         <v>13.8</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FS4" t="n">
         <v>13.9</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FT4" t="n">
         <v>15.5</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>15</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FV4" t="n">
         <v>15.5</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FW4" t="n">
         <v>17</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FX4" t="n">
         <v>16</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FY4" t="n">
         <v>15.4</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="FZ4" t="n">
         <v>13.7</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GA4" t="n">
         <v>5.3</v>
       </c>
-      <c r="GA4" t="inlineStr"/>
-      <c r="GB4" t="n">
+      <c r="GB4" t="inlineStr"/>
+      <c r="GC4" t="n">
         <v>14.6</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GD4" t="n">
         <v>14.7</v>
       </c>
-      <c r="GD4" t="n">
+      <c r="GE4" t="n">
         <v>14.4</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GF4" t="n">
         <v>14</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GG4" t="n">
         <v>16.4</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GH4" t="n">
         <v>13.5</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GI4" t="n">
         <v>14</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GJ4" t="n">
         <v>12.5</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GK4" t="n">
         <v>11.2</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GL4" t="n">
         <v>11.1</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GM4" t="n">
         <v>18.3</v>
       </c>
-      <c r="GM4" t="inlineStr"/>
-      <c r="GN4" t="n">
+      <c r="GN4" t="inlineStr"/>
+      <c r="GO4" t="n">
         <v>14.7</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GP4" t="n">
         <v>10.9</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="GQ4" t="n">
         <v>9.4</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="GR4" t="n">
         <v>12.7</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="GS4" t="n">
         <v>12</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="GT4" t="n">
         <v>14.9</v>
       </c>
-      <c r="GT4" t="n">
+      <c r="GU4" t="n">
         <v>13.6</v>
       </c>
-      <c r="GU4" t="n">
+      <c r="GV4" t="n">
         <v>13.5</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="GW4" t="n">
         <v>12.7</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GX4" t="n">
         <v>13.4</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GY4" t="n">
         <v>-0.6</v>
       </c>
-      <c r="GY4" t="inlineStr"/>
-      <c r="GZ4" t="n">
+      <c r="GZ4" t="inlineStr"/>
+      <c r="HA4" t="n">
         <v>11.8</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HB4" t="n">
         <v>14.4</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HC4" t="n">
         <v>15.8</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HD4" t="n">
         <v>11.8</v>
       </c>
-      <c r="HD4" t="n">
+      <c r="HE4" t="n">
         <v>12.1</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HF4" t="n">
         <v>11.7</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HG4" t="n">
         <v>14.3</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HH4" t="n">
         <v>16.6</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HI4" t="n">
         <v>16.2</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HJ4" t="n">
         <v>15.4</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HK4" t="n">
         <v>24.7</v>
       </c>
-      <c r="HK4" t="inlineStr"/>
-      <c r="HL4" t="n">
+      <c r="HL4" t="inlineStr"/>
+      <c r="HM4" t="n">
         <v>13.4</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HN4" t="n">
         <v>15.6</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HO4" t="n">
         <v>14.8</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HP4" t="n">
         <v>15.5</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HQ4" t="n">
         <v>16.9</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HR4" t="n">
         <v>15.2</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HS4" t="n">
         <v>13.1</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HT4" t="n">
         <v>13.4</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HU4" t="n">
         <v>14.1</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HV4" t="n">
         <v>16.2</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HW4" t="n">
         <v>23</v>
       </c>
-      <c r="HW4" t="inlineStr"/>
-      <c r="HX4" t="n">
+      <c r="HX4" t="inlineStr"/>
+      <c r="HY4" t="n">
         <v>14.6</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HZ4" t="n">
         <v>17.1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IA4" t="n">
         <v>16.1</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IB4" t="n">
         <v>18.6</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IC4" t="n">
         <v>13.7</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="ID4" t="n">
         <v>11.4</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IE4" t="n">
         <v>13.4</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IF4" t="n">
         <v>8.5</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IG4" t="n">
         <v>10.6</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>6.2</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="II4" t="n">
         <v>-3.2</v>
       </c>
-      <c r="II4" t="inlineStr"/>
-      <c r="IJ4" t="n">
+      <c r="IJ4" t="inlineStr"/>
+      <c r="IK4" t="n">
         <v>9.6</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IL4" t="n">
         <v>7.4</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IM4" t="n">
         <v>8.5</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IN4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IO4" t="n">
         <v>6.3</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IP4" t="n">
         <v>10.2</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IQ4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>7.7</v>
       </c>
       <c r="IR4" t="n">
         <v>7.7</v>
       </c>
       <c r="IS4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="IT4" t="n">
         <v>11.1</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IU4" t="n">
         <v>12.8</v>
       </c>
-      <c r="IU4" t="inlineStr"/>
-      <c r="IV4" t="n">
+      <c r="IV4" t="inlineStr"/>
+      <c r="IW4" t="n">
         <v>8.5</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IX4" t="n">
         <v>9.5</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IY4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IZ4" t="n">
         <v>7</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="JA4" t="n">
         <v>10.6</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JB4" t="n">
         <v>13.5</v>
       </c>
-      <c r="JB4" t="n">
+      <c r="JC4" t="n">
         <v>12.5</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JD4" t="n">
         <v>12.8</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JE4" t="n">
         <v>6.9</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JF4" t="n">
         <v>7.1</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JG4" t="n">
         <v>15.3</v>
       </c>
-      <c r="JG4" t="inlineStr"/>
-      <c r="JH4" t="n">
+      <c r="JH4" t="inlineStr"/>
+      <c r="JI4" t="n">
         <v>7.1</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JJ4" t="n">
         <v>5.5</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JK4" t="n">
         <v>6.1</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JL4" t="n">
         <v>7.8</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>6.9</v>
       </c>
       <c r="JM4" t="n">
         <v>6.9</v>
       </c>
       <c r="JN4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="JO4" t="n">
         <v>6.4</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JP4" t="n">
         <v>5.6</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JQ4" t="n">
         <v>4.2</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JR4" t="n">
         <v>4.5</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JS4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="JS4" t="inlineStr"/>
-      <c r="JT4" t="n">
+      <c r="JT4" t="inlineStr"/>
+      <c r="JU4" t="n">
         <v>4.7</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JV4" t="n">
         <v>4.2</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>4.8</v>
       </c>
       <c r="JW4" t="n">
         <v>4.8</v>
       </c>
       <c r="JX4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="JY4" t="n">
         <v>3.5</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JZ4" t="n">
         <v>2.7</v>
       </c>
-      <c r="JZ4" t="n">
+      <c r="KA4" t="n">
         <v>-0.4</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KB4" t="n">
         <v>-0.8</v>
       </c>
-      <c r="KB4" t="n">
+      <c r="KC4" t="n">
         <v>2.1</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KD4" t="n">
         <v>1</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KE4" t="n">
         <v>5.8</v>
       </c>
-      <c r="KE4" t="inlineStr"/>
-      <c r="KF4" t="n">
+      <c r="KF4" t="inlineStr"/>
+      <c r="KG4" t="n">
         <v>2.8</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KH4" t="n">
         <v>3.3</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KI4" t="n">
         <v>2.7</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KJ4" t="n">
         <v>4</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KK4" t="n">
         <v>6</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KL4" t="n">
         <v>4.8</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KM4" t="n">
         <v>5.4</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KN4" t="n">
         <v>4.7</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KO4" t="n">
         <v>1.2</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KP4" t="n">
         <v>7</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KQ4" t="n">
         <v>0.4</v>
       </c>
-      <c r="KQ4" t="inlineStr"/>
       <c r="KR4" t="inlineStr"/>
       <c r="KS4" t="inlineStr"/>
       <c r="KT4" t="inlineStr"/>
@@ -6039,6 +6046,7 @@
       <c r="RA4" t="inlineStr"/>
       <c r="RB4" t="inlineStr"/>
       <c r="RC4" t="inlineStr"/>
+      <c r="RD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6046,829 +6054,827 @@
           <t>Output of Electricity, Accumulated Growth Rate(%)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>8.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>10.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>11.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>13.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>13.7</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>14.9</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>16.8</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>19</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>19.5</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1.4</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.9</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.3</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-0.9</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>-1.4</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-3.1</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>-5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>-6.8</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>3.4</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>3.1</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>3</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>2.8</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>3</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3.3</v>
       </c>
       <c r="AI5" t="n">
         <v>3.3</v>
       </c>
       <c r="AJ5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK5" t="n">
         <v>4.1</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>4.2</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>2.9</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>6.8</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>6.9</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>7.2</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>7.4</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>7.7</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>7.8</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>7.7</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>8</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>11</v>
       </c>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="n">
         <v>5.7</v>
       </c>
       <c r="BB5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BC5" t="n">
         <v>6</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>6.4</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>6.5</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>6.8</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>6.3</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>6.4</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>6.6</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>6.7</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>6.3</v>
       </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="n">
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="n">
         <v>4.5</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>4.2</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>3.9</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>3.4</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>3</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>2</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>1</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0.9</v>
       </c>
       <c r="BT5" t="n">
         <v>0.9</v>
       </c>
       <c r="BU5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BV5" t="n">
         <v>1.8</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5" t="n">
         <v>0.3</v>
       </c>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="n">
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="n">
         <v>-0.2</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>0.1</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>-0.1</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5" t="n">
         <v>0.1</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5" t="n">
         <v>0.4</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5" t="n">
         <v>0.6</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0.2</v>
       </c>
       <c r="CF5" t="n">
         <v>0.2</v>
       </c>
       <c r="CG5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CH5" t="n">
         <v>-0.1</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>1.9</v>
       </c>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="n">
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="n">
         <v>3.2</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CL5" t="n">
         <v>3.9</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CM5" t="n">
         <v>4.2</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>4.4</v>
       </c>
       <c r="CN5" t="n">
         <v>4.4</v>
       </c>
       <c r="CO5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="CP5" t="n">
         <v>5.5</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CQ5" t="n">
         <v>5.8</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CR5" t="n">
         <v>5.7</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CS5" t="n">
         <v>5.6</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CT5" t="n">
         <v>5.8</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CU5" t="n">
         <v>5.5</v>
       </c>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="n">
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="n">
         <v>7.6</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>7</v>
       </c>
       <c r="CX5" t="n">
         <v>7</v>
       </c>
       <c r="CY5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>6.8</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DA5" t="n">
         <v>6.4</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DB5" t="n">
         <v>5.2</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DC5" t="n">
         <v>4.4</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DD5" t="n">
         <v>4</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DE5" t="n">
         <v>3.8</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>2.9</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>3.4</v>
       </c>
-      <c r="DG5" t="inlineStr"/>
-      <c r="DH5" t="n">
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="n">
         <v>4.7</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>4.4</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>3.9</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>3.6</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>3.8</v>
       </c>
       <c r="DM5" t="n">
         <v>3.8</v>
       </c>
       <c r="DN5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="DO5" t="n">
         <v>3.7</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>4.7</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>5</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>7.1</v>
       </c>
       <c r="DR5" t="n">
         <v>7.1</v>
       </c>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="n">
-        <v>12</v>
-      </c>
+      <c r="DS5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="DT5" t="inlineStr"/>
       <c r="DU5" t="n">
         <v>12</v>
       </c>
       <c r="DV5" t="n">
+        <v>12</v>
+      </c>
+      <c r="DW5" t="n">
         <v>12.3</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>12.7</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>13</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>13.3</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>13.5</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>12.8</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>12.6</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>13.4</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>11.7</v>
       </c>
-      <c r="EE5" t="inlineStr"/>
-      <c r="EF5" t="n">
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="n">
         <v>13.3</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>14</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>14.9</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>16.1</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>17.2</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>17.9</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>19.3</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>21.4</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>21.5</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>20.8</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>22.1</v>
       </c>
-      <c r="EQ5" t="inlineStr"/>
-      <c r="ER5" t="n">
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="n">
         <v>7</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>5.2</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>3.2</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>1.9</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>0.8</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>-0.7</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>-3.2</v>
       </c>
       <c r="EZ5" t="n">
         <v>-3.2</v>
       </c>
       <c r="FA5" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="FB5" t="n">
         <v>-2</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="FC5" t="inlineStr"/>
-      <c r="FD5" t="n">
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="n">
         <v>5.5</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>6.8</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FG5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="FH5" t="n">
         <v>9.9</v>
       </c>
-      <c r="FH5" t="n">
+      <c r="FI5" t="n">
         <v>10.9</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FJ5" t="n">
         <v>11.9</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FK5" t="n">
         <v>12.9</v>
       </c>
-      <c r="FK5" t="n">
+      <c r="FL5" t="n">
         <v>13.7</v>
       </c>
-      <c r="FL5" t="n">
+      <c r="FM5" t="n">
         <v>14.1</v>
       </c>
-      <c r="FM5" t="n">
+      <c r="FN5" t="n">
         <v>14</v>
       </c>
-      <c r="FN5" t="n">
+      <c r="FO5" t="n">
         <v>11.3</v>
       </c>
-      <c r="FO5" t="inlineStr"/>
-      <c r="FP5" t="n">
+      <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="n">
         <v>14.9</v>
       </c>
-      <c r="FQ5" t="n">
+      <c r="FR5" t="n">
         <v>15.8</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FS5" t="n">
         <v>16.2</v>
       </c>
-      <c r="FS5" t="n">
+      <c r="FT5" t="n">
         <v>16.4</v>
       </c>
-      <c r="FT5" t="n">
+      <c r="FU5" t="n">
         <v>16.3</v>
       </c>
-      <c r="FU5" t="n">
+      <c r="FV5" t="n">
         <v>16.5</v>
       </c>
-      <c r="FV5" t="n">
+      <c r="FW5" t="n">
         <v>16</v>
       </c>
-      <c r="FW5" t="n">
+      <c r="FX5" t="n">
         <v>15.8</v>
       </c>
-      <c r="FX5" t="n">
+      <c r="FY5" t="n">
         <v>15.6</v>
       </c>
-      <c r="FY5" t="n">
+      <c r="FZ5" t="n">
         <v>15.5</v>
       </c>
-      <c r="FZ5" t="n">
+      <c r="GA5" t="n">
         <v>16.6</v>
       </c>
-      <c r="GA5" t="inlineStr"/>
-      <c r="GB5" t="n">
+      <c r="GB5" t="inlineStr"/>
+      <c r="GC5" t="n">
         <v>13.7</v>
       </c>
-      <c r="GC5" t="n">
+      <c r="GD5" t="n">
         <v>13.5</v>
       </c>
-      <c r="GD5" t="n">
+      <c r="GE5" t="n">
         <v>13</v>
       </c>
-      <c r="GE5" t="n">
+      <c r="GF5" t="n">
         <v>12.9</v>
       </c>
-      <c r="GF5" t="n">
+      <c r="GG5" t="n">
         <v>12.7</v>
       </c>
-      <c r="GG5" t="n">
+      <c r="GH5" t="n">
         <v>12.1</v>
       </c>
-      <c r="GH5" t="n">
+      <c r="GI5" t="n">
         <v>12</v>
       </c>
-      <c r="GI5" t="n">
+      <c r="GJ5" t="n">
         <v>11.3</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>11.1</v>
       </c>
       <c r="GK5" t="n">
         <v>11.1</v>
       </c>
       <c r="GL5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="GM5" t="n">
         <v>11.2</v>
       </c>
-      <c r="GM5" t="inlineStr"/>
-      <c r="GN5" t="n">
+      <c r="GN5" t="inlineStr"/>
+      <c r="GO5" t="n">
         <v>13.3</v>
       </c>
-      <c r="GO5" t="n">
+      <c r="GP5" t="n">
         <v>12.9</v>
       </c>
-      <c r="GP5" t="n">
+      <c r="GQ5" t="n">
         <v>12.8</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>13.4</v>
       </c>
       <c r="GR5" t="n">
         <v>13.4</v>
       </c>
       <c r="GS5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="GT5" t="n">
         <v>13.6</v>
       </c>
-      <c r="GT5" t="n">
+      <c r="GU5" t="n">
         <v>13.2</v>
       </c>
-      <c r="GU5" t="n">
+      <c r="GV5" t="n">
         <v>13.4</v>
       </c>
-      <c r="GV5" t="n">
+      <c r="GW5" t="n">
         <v>12.6</v>
       </c>
-      <c r="GW5" t="n">
+      <c r="GX5" t="n">
         <v>13</v>
       </c>
-      <c r="GX5" t="n">
+      <c r="GY5" t="n">
         <v>12.1</v>
       </c>
-      <c r="GY5" t="inlineStr"/>
-      <c r="GZ5" t="n">
+      <c r="GZ5" t="inlineStr"/>
+      <c r="HA5" t="n">
         <v>14.9</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>15</v>
       </c>
       <c r="HB5" t="n">
         <v>15</v>
       </c>
       <c r="HC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="HD5" t="n">
         <v>14.5</v>
       </c>
-      <c r="HD5" t="n">
+      <c r="HE5" t="n">
         <v>14.8</v>
       </c>
-      <c r="HE5" t="n">
+      <c r="HF5" t="n">
         <v>15.2</v>
       </c>
-      <c r="HF5" t="n">
+      <c r="HG5" t="n">
         <v>15.8</v>
       </c>
-      <c r="HG5" t="n">
+      <c r="HH5" t="n">
         <v>16.1</v>
       </c>
-      <c r="HH5" t="n">
+      <c r="HI5" t="n">
         <v>15.8</v>
       </c>
-      <c r="HI5" t="n">
+      <c r="HJ5" t="n">
         <v>15.7</v>
       </c>
-      <c r="HJ5" t="n">
+      <c r="HK5" t="n">
         <v>15.3</v>
       </c>
-      <c r="HK5" t="inlineStr"/>
-      <c r="HL5" t="n">
+      <c r="HL5" t="inlineStr"/>
+      <c r="HM5" t="n">
         <v>15.4</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HN5" t="n">
         <v>15.5</v>
       </c>
-      <c r="HN5" t="n">
+      <c r="HO5" t="n">
         <v>15.4</v>
       </c>
-      <c r="HO5" t="n">
+      <c r="HP5" t="n">
         <v>15.6</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HQ5" t="n">
         <v>15.5</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HR5" t="n">
         <v>15.3</v>
       </c>
-      <c r="HR5" t="n">
+      <c r="HS5" t="n">
         <v>15.4</v>
       </c>
-      <c r="HS5" t="n">
+      <c r="HT5" t="n">
         <v>15.5</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>16</v>
       </c>
       <c r="HU5" t="n">
         <v>16</v>
       </c>
       <c r="HV5" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW5" t="n">
         <v>16.6</v>
       </c>
-      <c r="HW5" t="inlineStr"/>
-      <c r="HX5" t="n">
+      <c r="HX5" t="inlineStr"/>
+      <c r="HY5" t="n">
         <v>11.7</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="HZ5" t="n">
         <v>11.4</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="IA5" t="n">
         <v>10.8</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IB5" t="n">
         <v>10.6</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IC5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="ID5" t="n">
         <v>9.5</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="IE5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IF5" t="n">
         <v>7.8</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IG5" t="n">
         <v>7.3</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IH5" t="n">
         <v>6.5</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="II5" t="n">
         <v>7.1</v>
       </c>
-      <c r="II5" t="inlineStr"/>
-      <c r="IJ5" t="n">
+      <c r="IJ5" t="inlineStr"/>
+      <c r="IK5" t="n">
         <v>8.5</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IL5" t="n">
         <v>8.4</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IM5" t="n">
         <v>8.5</v>
-      </c>
-      <c r="IM5" t="n">
-        <v>8.4</v>
       </c>
       <c r="IN5" t="n">
         <v>8.4</v>
       </c>
       <c r="IO5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="IP5" t="n">
         <v>8.6</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IQ5" t="n">
         <v>7.8</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IR5" t="n">
         <v>7.4</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IS5" t="n">
         <v>7.5</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IT5" t="n">
         <v>11.8</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IU5" t="n">
         <v>5.9</v>
       </c>
-      <c r="IU5" t="inlineStr"/>
-      <c r="IV5" t="n">
+      <c r="IV5" t="inlineStr"/>
+      <c r="IW5" t="n">
         <v>10.7</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IX5" t="n">
         <v>10.2</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IY5" t="n">
         <v>10.3</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IZ5" t="n">
         <v>10.1</v>
       </c>
-      <c r="IZ5" t="n">
+      <c r="JA5" t="n">
         <v>10.4</v>
       </c>
-      <c r="JA5" t="n">
+      <c r="JB5" t="n">
         <v>10.5</v>
       </c>
-      <c r="JB5" t="n">
+      <c r="JC5" t="n">
         <v>9.9</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JD5" t="n">
         <v>9.5</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JE5" t="n">
         <v>9</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JF5" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JG5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="JG5" t="inlineStr"/>
-      <c r="JH5" t="n">
+      <c r="JH5" t="inlineStr"/>
+      <c r="JI5" t="n">
         <v>6.3</v>
-      </c>
-      <c r="JI5" t="n">
-        <v>6.4</v>
       </c>
       <c r="JJ5" t="n">
         <v>6.4</v>
       </c>
       <c r="JK5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="JL5" t="n">
         <v>6.2</v>
       </c>
-      <c r="JL5" t="n">
+      <c r="JM5" t="n">
         <v>6.1</v>
       </c>
-      <c r="JM5" t="n">
+      <c r="JN5" t="n">
         <v>5.9</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JO5" t="n">
         <v>5.6</v>
       </c>
-      <c r="JO5" t="n">
+      <c r="JP5" t="n">
         <v>4.9</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JQ5" t="n">
         <v>4.7</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JR5" t="n">
         <v>5</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JS5" t="n">
         <v>6</v>
       </c>
-      <c r="JS5" t="inlineStr"/>
-      <c r="JT5" t="n">
+      <c r="JT5" t="inlineStr"/>
+      <c r="JU5" t="n">
         <v>2.7</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JV5" t="n">
         <v>2.5</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JW5" t="n">
         <v>2.3</v>
       </c>
-      <c r="JW5" t="n">
+      <c r="JX5" t="n">
         <v>2.1</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JY5" t="n">
         <v>1.9</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JZ5" t="n">
         <v>1.8</v>
       </c>
-      <c r="JZ5" t="n">
+      <c r="KA5" t="n">
         <v>1</v>
       </c>
-      <c r="KA5" t="n">
+      <c r="KB5" t="n">
         <v>1.1</v>
       </c>
-      <c r="KB5" t="n">
+      <c r="KC5" t="n">
         <v>1.7</v>
       </c>
-      <c r="KC5" t="n">
+      <c r="KD5" t="n">
         <v>1.8</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KE5" t="n">
         <v>1.4</v>
       </c>
-      <c r="KE5" t="inlineStr"/>
-      <c r="KF5" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="KF5" t="inlineStr"/>
       <c r="KG5" t="n">
         <v>4.5</v>
       </c>
@@ -6876,30 +6882,32 @@
         <v>4.5</v>
       </c>
       <c r="KI5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="KJ5" t="n">
         <v>4.7</v>
       </c>
       <c r="KK5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="KL5" t="n">
         <v>4.4</v>
       </c>
       <c r="KM5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KN5" t="n">
         <v>4.2</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KO5" t="n">
         <v>3.8</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KP5" t="n">
         <v>5.4</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KQ5" t="n">
         <v>4.4</v>
       </c>
-      <c r="KQ5" t="inlineStr"/>
       <c r="KR5" t="inlineStr"/>
       <c r="KS5" t="inlineStr"/>
       <c r="KT5" t="inlineStr"/>
@@ -6912,40 +6920,40 @@
       <c r="LA5" t="inlineStr"/>
       <c r="LB5" t="inlineStr"/>
       <c r="LC5" t="inlineStr"/>
-      <c r="LD5" t="n">
+      <c r="LD5" t="inlineStr"/>
+      <c r="LE5" t="n">
         <v>8.5</v>
       </c>
-      <c r="LE5" t="n">
+      <c r="LF5" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="LF5" t="n">
+      <c r="LG5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="LG5" t="n">
+      <c r="LH5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="LH5" t="n">
+      <c r="LI5" t="n">
         <v>9</v>
       </c>
-      <c r="LI5" t="n">
+      <c r="LJ5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="LJ5" t="n">
+      <c r="LK5" t="n">
         <v>8.4</v>
       </c>
-      <c r="LK5" t="n">
+      <c r="LL5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="LL5" t="n">
+      <c r="LM5" t="n">
         <v>8.4</v>
       </c>
-      <c r="LM5" t="n">
+      <c r="LN5" t="n">
         <v>7.6</v>
       </c>
-      <c r="LN5" t="n">
+      <c r="LO5" t="n">
         <v>7.7</v>
       </c>
-      <c r="LO5" t="inlineStr"/>
       <c r="LP5" t="inlineStr"/>
       <c r="LQ5" t="inlineStr"/>
       <c r="LR5" t="inlineStr"/>
@@ -6958,14 +6966,12 @@
       <c r="LY5" t="inlineStr"/>
       <c r="LZ5" t="inlineStr"/>
       <c r="MA5" t="inlineStr"/>
-      <c r="MB5" t="n">
+      <c r="MB5" t="inlineStr"/>
+      <c r="MC5" t="n">
         <v>9.6</v>
       </c>
-      <c r="MC5" t="n">
+      <c r="MD5" t="n">
         <v>9.300000000000001</v>
-      </c>
-      <c r="MD5" t="n">
-        <v>9.4</v>
       </c>
       <c r="ME5" t="n">
         <v>9.4</v>
@@ -6977,92 +6983,92 @@
         <v>9.4</v>
       </c>
       <c r="MH5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="MI5" t="n">
         <v>9.5</v>
       </c>
-      <c r="MI5" t="n">
+      <c r="MJ5" t="n">
         <v>10</v>
       </c>
-      <c r="MJ5" t="n">
+      <c r="MK5" t="n">
         <v>9.9</v>
       </c>
-      <c r="MK5" t="n">
+      <c r="ML5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="ML5" t="n">
+      <c r="MM5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="MM5" t="inlineStr"/>
-      <c r="MN5" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="MN5" t="inlineStr"/>
       <c r="MO5" t="n">
         <v>10.9</v>
       </c>
       <c r="MP5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="MQ5" t="n">
         <v>10.8</v>
       </c>
-      <c r="MQ5" t="n">
+      <c r="MR5" t="n">
         <v>10.9</v>
       </c>
-      <c r="MR5" t="n">
+      <c r="MS5" t="n">
         <v>11.2</v>
       </c>
-      <c r="MS5" t="n">
+      <c r="MT5" t="n">
         <v>11.4</v>
       </c>
-      <c r="MT5" t="n">
+      <c r="MU5" t="n">
         <v>11.2</v>
       </c>
-      <c r="MU5" t="n">
+      <c r="MV5" t="n">
         <v>10.2</v>
       </c>
-      <c r="MV5" t="n">
+      <c r="MW5" t="n">
         <v>10.7</v>
       </c>
-      <c r="MW5" t="n">
+      <c r="MX5" t="n">
         <v>10.8</v>
       </c>
-      <c r="MX5" t="n">
+      <c r="MY5" t="n">
         <v>10.2</v>
       </c>
-      <c r="MY5" t="inlineStr"/>
-      <c r="MZ5" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="MZ5" t="inlineStr"/>
       <c r="NA5" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="NB5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="NC5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="NC5" t="n">
+      <c r="ND5" t="n">
         <v>9.1</v>
       </c>
-      <c r="ND5" t="n">
+      <c r="NE5" t="n">
         <v>8.9</v>
       </c>
-      <c r="NE5" t="n">
+      <c r="NF5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="NF5" t="n">
+      <c r="NG5" t="n">
         <v>8.4</v>
       </c>
-      <c r="NG5" t="n">
+      <c r="NH5" t="n">
         <v>9</v>
-      </c>
-      <c r="NH5" t="n">
-        <v>9.5</v>
       </c>
       <c r="NI5" t="n">
         <v>9.5</v>
       </c>
       <c r="NJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="NK5" t="n">
         <v>9.4</v>
       </c>
-      <c r="NK5" t="inlineStr"/>
-      <c r="NL5" t="n">
-        <v>6</v>
-      </c>
+      <c r="NL5" t="inlineStr"/>
       <c r="NM5" t="n">
         <v>6</v>
       </c>
@@ -7070,64 +7076,66 @@
         <v>6</v>
       </c>
       <c r="NO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="NP5" t="n">
         <v>6.1</v>
       </c>
-      <c r="NP5" t="n">
+      <c r="NQ5" t="n">
         <v>6.3</v>
       </c>
-      <c r="NQ5" t="n">
+      <c r="NR5" t="n">
         <v>6.4</v>
       </c>
-      <c r="NR5" t="n">
+      <c r="NS5" t="n">
         <v>6.3</v>
       </c>
-      <c r="NS5" t="n">
+      <c r="NT5" t="n">
         <v>6.8</v>
       </c>
-      <c r="NT5" t="n">
+      <c r="NU5" t="n">
         <v>6.9</v>
       </c>
-      <c r="NU5" t="n">
+      <c r="NV5" t="n">
         <v>7.9</v>
       </c>
-      <c r="NV5" t="n">
+      <c r="NW5" t="n">
         <v>8.1</v>
       </c>
-      <c r="NW5" t="inlineStr"/>
-      <c r="NX5" t="n">
+      <c r="NX5" t="inlineStr"/>
+      <c r="NY5" t="n">
         <v>7.5</v>
       </c>
-      <c r="NY5" t="n">
+      <c r="NZ5" t="n">
         <v>6.9</v>
       </c>
-      <c r="NZ5" t="n">
+      <c r="OA5" t="n">
         <v>6.6</v>
       </c>
-      <c r="OA5" t="n">
+      <c r="OB5" t="n">
         <v>6.5</v>
       </c>
-      <c r="OB5" t="n">
+      <c r="OC5" t="n">
         <v>6.6</v>
       </c>
-      <c r="OC5" t="n">
+      <c r="OD5" t="n">
         <v>5.9</v>
       </c>
-      <c r="OD5" t="n">
+      <c r="OE5" t="n">
         <v>6</v>
       </c>
-      <c r="OE5" t="n">
+      <c r="OF5" t="n">
         <v>5.4</v>
       </c>
-      <c r="OF5" t="n">
+      <c r="OG5" t="n">
         <v>4.3</v>
       </c>
-      <c r="OG5" t="n">
+      <c r="OH5" t="n">
         <v>3.2</v>
       </c>
-      <c r="OH5" t="n">
+      <c r="OI5" t="n">
         <v>2.6</v>
       </c>
-      <c r="OI5" t="inlineStr"/>
       <c r="OJ5" t="inlineStr"/>
       <c r="OK5" t="inlineStr"/>
       <c r="OL5" t="inlineStr"/>
@@ -7200,6 +7208,7 @@
       <c r="RA5" t="inlineStr"/>
       <c r="RB5" t="inlineStr"/>
       <c r="RC5" t="inlineStr"/>
+      <c r="RD5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
